--- a/Output/Animal2.xlsx
+++ b/Output/Animal2.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>strength (raw)</t>
         </is>
       </c>
     </row>

--- a/Output/Animal2.xlsx
+++ b/Output/Animal2.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>strength (raw)</t>
+          <t>strength (RMS)</t>
         </is>
       </c>
     </row>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.4</v>
+        <v>16.4</v>
       </c>
       <c r="C2" t="n">
         <v>30.8</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4</v>
+        <v>14.4</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="C3" t="n">
         <v>30.4</v>
       </c>
       <c r="D3" t="n">
-        <v>16.4</v>
+        <v>14.8</v>
       </c>
       <c r="E3" t="n">
-        <v>72.40000000000001</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
       <c r="C4" t="n">
         <v>30.8</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.8</v>
+        <v>16.8</v>
       </c>
       <c r="C5" t="n">
         <v>31.6</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8</v>
+        <v>14.8</v>
       </c>
       <c r="E5" t="n">
-        <v>67.59999999999999</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.2</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>30.4</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2</v>
+        <v>12.4</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C7" t="n">
         <v>31.2</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E7" t="n">
-        <v>66.2</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.67</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>15.33</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>63.67</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="C9" t="n">
         <v>30.4</v>
       </c>
       <c r="D9" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
       <c r="C10" t="n">
         <v>30.8</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>61.2</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>30.4</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="E11" t="n">
-        <v>61.4</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="C12" t="n">
         <v>30.4</v>
       </c>
       <c r="D12" t="n">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>56</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>73</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="C14" t="n">
         <v>30.8</v>
       </c>
       <c r="D14" t="n">
-        <v>16.8</v>
+        <v>15.2</v>
       </c>
       <c r="E14" t="n">
-        <v>70.59999999999999</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="C15" t="n">
         <v>30.4</v>
       </c>
       <c r="D15" t="n">
-        <v>16.4</v>
+        <v>14.8</v>
       </c>
       <c r="E15" t="n">
-        <v>71.59999999999999</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.8</v>
+        <v>21.6</v>
       </c>
       <c r="C16" t="n">
         <v>30.4</v>
       </c>
       <c r="D16" t="n">
-        <v>11.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.6</v>
+        <v>19.2</v>
       </c>
       <c r="C17" t="n">
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>16.4</v>
+        <v>12.8</v>
       </c>
       <c r="E17" t="n">
-        <v>63.2</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="C18" t="n">
         <v>30.5</v>
       </c>
       <c r="D18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="C19" t="n">
         <v>30.4</v>
       </c>
       <c r="D19" t="n">
-        <v>16.4</v>
+        <v>14.8</v>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>47.4</v>
       </c>
     </row>
   </sheetData>
